--- a/CS2101_noheadercolumns.xlsx
+++ b/CS2101_noheadercolumns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neoru\Documents\NUS\Y2S1\CS2103T\Team Project\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD93DDA-B1F6-4059-8EFC-79D25D84242C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9EF7AA-6C35-460E-8E84-4DD544D1B977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>CS2101 (2010 - 2020/2021 Semester 1) G09</t>
   </si>
@@ -283,6 +283,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="523874" cy="472440"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="3e01a814-b483-4ff7-87eb-1816480128eb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F421D2F4-6F07-4570-B015-9D7B18DC07D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="736600"/>
+          <a:ext cx="523874" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -583,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A562E69-3C8B-494C-84C7-9127BBCE2717}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,6 +739,37 @@
       </c>
       <c r="K5" s="6"/>
     </row>
+    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
